--- a/doc/excel/cumdens.xlsx
+++ b/doc/excel/cumdens.xlsx
@@ -5345,8 +5345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK26" sqref="AK26"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5549,6 +5549,13 @@
         <f>AJ3</f>
         <v>0</v>
       </c>
+      <c r="AW3">
+        <f>AX3*2+1</f>
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
       <c r="BA3" t="s">
         <v>5</v>
       </c>
@@ -5631,6 +5638,13 @@
         <f>AJ4+AK3</f>
         <v>1.6129032258064516E-2</v>
       </c>
+      <c r="AW4">
+        <f t="shared" ref="AW4:AW14" si="3">AX4*2+1</f>
+        <v>5</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
       <c r="BA4" t="s">
         <v>6</v>
       </c>
@@ -5706,12 +5720,19 @@
         <v>3.1999999999999897E-2</v>
       </c>
       <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ68" si="3">AH5/SUM($AH$4:$AH$103)</f>
+        <f t="shared" ref="AJ5:AJ68" si="4">AH5/SUM($AH$4:$AH$103)</f>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK5">
-        <f t="shared" ref="AK5:AK68" si="4">AJ5+AK4</f>
+        <f t="shared" ref="AK5:AK68" si="5">AJ5+AK4</f>
         <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
       </c>
       <c r="BA5" t="s">
         <v>7</v>
@@ -5788,12 +5809,19 @@
         <v>4.7999999999999897E-2</v>
       </c>
       <c r="AJ6">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="5"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="AW6">
         <f t="shared" si="3"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="4"/>
-        <v>4.8387096774193547E-2</v>
+        <v>9</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
       </c>
       <c r="BA6" t="s">
         <v>8</v>
@@ -5871,12 +5899,19 @@
         <v>6.3999999999999904E-2</v>
       </c>
       <c r="AJ7">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="5"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="AW7">
         <f t="shared" si="3"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="4"/>
-        <v>6.4516129032258063E-2</v>
+        <v>11</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
       </c>
       <c r="BA7" t="s">
         <v>9</v>
@@ -5946,12 +5981,19 @@
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="AJ8">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="5"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="AW8">
         <f t="shared" si="3"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="4"/>
-        <v>8.0645161290322578E-2</v>
+        <v>13</v>
+      </c>
+      <c r="AX8">
+        <v>6</v>
       </c>
       <c r="BA8" t="s">
         <v>10</v>
@@ -6022,12 +6064,19 @@
         <v>9.5999999999999905E-2</v>
       </c>
       <c r="AJ9">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="5"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="AW9">
         <f t="shared" si="3"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="4"/>
-        <v>9.6774193548387094E-2</v>
+        <v>15</v>
+      </c>
+      <c r="AX9">
+        <v>7</v>
       </c>
       <c r="BA9" t="s">
         <v>11</v>
@@ -6097,12 +6146,19 @@
         <v>0.112</v>
       </c>
       <c r="AJ10">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="5"/>
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="AW10">
         <f t="shared" si="3"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="4"/>
-        <v>0.11290322580645161</v>
+        <v>17</v>
+      </c>
+      <c r="AX10">
+        <v>8</v>
       </c>
       <c r="BA10" t="s">
         <v>12</v>
@@ -6166,12 +6222,19 @@
         <v>0.128</v>
       </c>
       <c r="AJ11">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="5"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="AW11">
         <f t="shared" si="3"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="4"/>
-        <v>0.12903225806451613</v>
+        <v>19</v>
+      </c>
+      <c r="AX11">
+        <v>9</v>
       </c>
       <c r="BA11" t="s">
         <v>13</v>
@@ -6234,12 +6297,19 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="AJ12">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="5"/>
+        <v>0.14516129032258063</v>
+      </c>
+      <c r="AW12">
         <f t="shared" si="3"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="4"/>
-        <v>0.14516129032258063</v>
+        <v>21</v>
+      </c>
+      <c r="AX12">
+        <v>10</v>
       </c>
       <c r="BA12" t="s">
         <v>14</v>
@@ -6303,12 +6373,19 @@
         <v>0.16</v>
       </c>
       <c r="AJ13">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="5"/>
+        <v>0.16129032258064513</v>
+      </c>
+      <c r="AW13">
         <f t="shared" si="3"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="4"/>
-        <v>0.16129032258064513</v>
+        <v>23</v>
+      </c>
+      <c r="AX13">
+        <v>11</v>
       </c>
       <c r="BA13" t="s">
         <v>15</v>
@@ -6371,12 +6448,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="AJ14">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="5"/>
+        <v>0.17741935483870963</v>
+      </c>
+      <c r="AW14">
         <f t="shared" si="3"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="4"/>
-        <v>0.17741935483870963</v>
+        <v>25</v>
+      </c>
+      <c r="AX14">
+        <v>12</v>
       </c>
       <c r="BA14" t="s">
         <v>16</v>
@@ -6440,11 +6524,11 @@
         <v>0.192</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19354838709677413</v>
       </c>
       <c r="BA15" t="s">
@@ -6508,11 +6592,11 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20967741935483863</v>
       </c>
       <c r="BA16" t="s">
@@ -6577,11 +6661,11 @@
         <v>0.224</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22580645161290314</v>
       </c>
       <c r="BA17" t="s">
@@ -6645,11 +6729,11 @@
         <v>0.24</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24193548387096764</v>
       </c>
       <c r="BA18" t="s">
@@ -6714,11 +6798,11 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25806451612903214</v>
       </c>
       <c r="BA19" t="s">
@@ -6782,11 +6866,11 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27419354838709664</v>
       </c>
       <c r="BA20" t="s">
@@ -6850,11 +6934,11 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29032258064516114</v>
       </c>
       <c r="BA21" t="s">
@@ -6918,11 +7002,11 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30645161290322565</v>
       </c>
       <c r="BA22" t="s">
@@ -6977,11 +7061,11 @@
         <v>0.32</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32258064516129015</v>
       </c>
       <c r="BA23" t="s">
@@ -7036,11 +7120,11 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33870967741935465</v>
       </c>
       <c r="BA24" t="s">
@@ -7095,11 +7179,11 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35483870967741915</v>
       </c>
       <c r="BA25" t="s">
@@ -7154,11 +7238,11 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37096774193548365</v>
       </c>
       <c r="BA26" t="s">
@@ -7213,11 +7297,11 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38709677419354815</v>
       </c>
       <c r="BA27" t="s">
@@ -7272,11 +7356,11 @@
         <v>0.4</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40322580645161266</v>
       </c>
       <c r="BA28" t="s">
@@ -7331,11 +7415,11 @@
         <v>0.41593599999999997</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6E-2</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41922580645161267</v>
       </c>
       <c r="BA29" t="s">
@@ -7390,11 +7474,11 @@
         <v>0.43174400000000002</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5870967741935485E-2</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43509677419354814</v>
       </c>
       <c r="BA30" t="s">
@@ -7449,11 +7533,11 @@
         <v>0.44742399999999999</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5741935483870966E-2</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.45083870967741912</v>
       </c>
       <c r="BA31" t="s">
@@ -7508,11 +7592,11 @@
         <v>0.462976</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5612903225806451E-2</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46645161290322557</v>
       </c>
       <c r="BA32" t="s">
@@ -7567,11 +7651,11 @@
         <v>0.47839999999999999</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5483870967741935E-2</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48193548387096752</v>
       </c>
       <c r="BA33" t="s">
@@ -7626,11 +7710,11 @@
         <v>0.49369600000000002</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5354838709677418E-2</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.49729032258064493</v>
       </c>
       <c r="BA34" t="s">
@@ -7685,11 +7769,11 @@
         <v>0.50886399999999998</v>
       </c>
       <c r="AJ35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5225806451612903E-2</v>
       </c>
       <c r="AK35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51251612903225785</v>
       </c>
       <c r="BA35" t="s">
@@ -7744,11 +7828,11 @@
         <v>0.52390400000000004</v>
       </c>
       <c r="AJ36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5096774193548388E-2</v>
       </c>
       <c r="AK36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52761290322580623</v>
       </c>
       <c r="BA36" t="s">
@@ -7803,11 +7887,11 @@
         <v>0.53881599999999996</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4967741935483872E-2</v>
       </c>
       <c r="AK37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54258064516129012</v>
       </c>
       <c r="BA37" t="s">
@@ -7862,11 +7946,11 @@
         <v>0.55359999999999998</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4838709677419355E-2</v>
       </c>
       <c r="AK38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55741935483870952</v>
       </c>
       <c r="BA38" t="s">
@@ -7921,11 +8005,11 @@
         <v>0.56825599999999998</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.470967741935484E-2</v>
       </c>
       <c r="AK39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57212903225806433</v>
       </c>
       <c r="BA39" t="s">
@@ -7980,11 +8064,11 @@
         <v>0.58278399999999997</v>
       </c>
       <c r="AJ40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4580645161290323E-2</v>
       </c>
       <c r="AK40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58670967741935465</v>
       </c>
       <c r="BA40" t="s">
@@ -8039,11 +8123,11 @@
         <v>0.59718400000000005</v>
       </c>
       <c r="AJ41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4451612903225807E-2</v>
       </c>
       <c r="AK41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60116129032258048</v>
       </c>
       <c r="BA41" t="s">
@@ -8098,11 +8182,11 @@
         <v>0.611456</v>
       </c>
       <c r="AJ42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.432258064516129E-2</v>
       </c>
       <c r="AK42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.61548387096774182</v>
       </c>
       <c r="BA42" t="s">
@@ -8157,11 +8241,11 @@
         <v>0.62560000000000004</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4193548387096775E-2</v>
       </c>
       <c r="AK43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62967741935483856</v>
       </c>
       <c r="BA43" t="s">
@@ -8216,11 +8300,11 @@
         <v>0.63961599999999996</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4064516129032258E-2</v>
       </c>
       <c r="AK44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64374193548387082</v>
       </c>
       <c r="BA44" t="s">
@@ -8275,11 +8359,11 @@
         <v>0.65350399999999997</v>
       </c>
       <c r="AJ45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3935483870967743E-2</v>
       </c>
       <c r="AK45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65767741935483859</v>
       </c>
       <c r="BA45" t="s">
@@ -8334,11 +8418,11 @@
         <v>0.66726399999999997</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3806451612903226E-2</v>
       </c>
       <c r="AK46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67148387096774176</v>
       </c>
       <c r="BA46" t="s">
@@ -8393,11 +8477,11 @@
         <v>0.68089599999999995</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3677419354838708E-2</v>
       </c>
       <c r="AK47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68516129032258044</v>
       </c>
       <c r="BA47" t="s">
@@ -8452,11 +8536,11 @@
         <v>0.69440000000000002</v>
       </c>
       <c r="AJ48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3548387096774193E-2</v>
       </c>
       <c r="AK48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69870967741935464</v>
       </c>
       <c r="BA48" t="s">
@@ -8511,11 +8595,11 @@
         <v>0.70777599999999996</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3419354838709676E-2</v>
       </c>
       <c r="AK49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71212903225806434</v>
       </c>
       <c r="BA49" t="s">
@@ -8570,11 +8654,11 @@
         <v>0.721024</v>
       </c>
       <c r="AJ50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3290322580645161E-2</v>
       </c>
       <c r="AK50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72541935483870945</v>
       </c>
       <c r="BA50" t="s">
@@ -8629,11 +8713,11 @@
         <v>0.73414400000000002</v>
       </c>
       <c r="AJ51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3161290322580644E-2</v>
       </c>
       <c r="AK51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73858064516129007</v>
       </c>
       <c r="BA51" t="s">
@@ -8688,11 +8772,11 @@
         <v>0.74713600000000002</v>
       </c>
       <c r="AJ52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.303225806451613E-2</v>
       </c>
       <c r="AK52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75161290322580621</v>
       </c>
       <c r="BA52" t="s">
@@ -8747,11 +8831,11 @@
         <v>0.76</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2903225806451613E-2</v>
       </c>
       <c r="AK53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76451612903225785</v>
       </c>
       <c r="BA53" t="s">
@@ -8806,11 +8890,11 @@
         <v>0.77260799999999996</v>
       </c>
       <c r="AJ54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2516129032258065E-2</v>
       </c>
       <c r="AK54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77703225806451592</v>
       </c>
       <c r="BA54" t="s">
@@ -8865,11 +8949,11 @@
         <v>0.78483199999999997</v>
       </c>
       <c r="AJ55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2129032258064516E-2</v>
       </c>
       <c r="AK55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78916129032258042</v>
       </c>
       <c r="BA55" t="s">
@@ -8924,11 +9008,11 @@
         <v>0.79667200000000005</v>
       </c>
       <c r="AJ56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1741935483870968E-2</v>
       </c>
       <c r="AK56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.80090322580645135</v>
       </c>
       <c r="BA56" t="s">
@@ -8983,11 +9067,11 @@
         <v>0.80812799999999996</v>
       </c>
       <c r="AJ57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1354838709677418E-2</v>
       </c>
       <c r="AK57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81225806451612881</v>
       </c>
       <c r="BA57" t="s">
@@ -9042,11 +9126,11 @@
         <v>0.81920000000000004</v>
       </c>
       <c r="AJ58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0967741935483872E-2</v>
       </c>
       <c r="AK58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8232258064516127</v>
       </c>
       <c r="BA58" t="s">
@@ -9101,11 +9185,11 @@
         <v>0.82988799999999996</v>
       </c>
       <c r="AJ59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0580645161290323E-2</v>
       </c>
       <c r="AK59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83380645161290301</v>
       </c>
       <c r="BA59" t="s">
@@ -9160,11 +9244,11 @@
         <v>0.84019200000000005</v>
       </c>
       <c r="AJ60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0193548387096775E-2</v>
       </c>
       <c r="AK60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84399999999999975</v>
       </c>
       <c r="BA60" t="s">
@@ -9219,11 +9303,11 @@
         <v>0.85011199999999998</v>
       </c>
       <c r="AJ61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8064516129032255E-3</v>
       </c>
       <c r="AK61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85380645161290303</v>
       </c>
       <c r="BA61" t="s">
@@ -9278,11 +9362,11 @@
         <v>0.85964799999999997</v>
       </c>
       <c r="AJ62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4193548387096777E-3</v>
       </c>
       <c r="AK62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86322580645161273</v>
       </c>
       <c r="BA62" t="s">
@@ -9337,11 +9421,11 @@
         <v>0.86880000000000002</v>
       </c>
       <c r="AJ63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0322580645161299E-3</v>
       </c>
       <c r="AK63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.87225806451612886</v>
       </c>
       <c r="BA63" t="s">
@@ -9396,11 +9480,11 @@
         <v>0.87756800000000001</v>
       </c>
       <c r="AJ64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6451612903225804E-3</v>
       </c>
       <c r="AK64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88090322580645142</v>
       </c>
       <c r="BA64" t="s">
@@ -9455,11 +9539,11 @@
         <v>0.88595199999999996</v>
       </c>
       <c r="AJ65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2580645161290326E-3</v>
       </c>
       <c r="AK65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8891612903225804</v>
       </c>
       <c r="BA65" t="s">
@@ -9514,11 +9598,11 @@
         <v>0.89395199999999997</v>
       </c>
       <c r="AJ66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8709677419354831E-3</v>
       </c>
       <c r="AK66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89703225806451592</v>
       </c>
       <c r="BA66" t="s">
@@ -9533,7 +9617,7 @@
     </row>
     <row r="67" spans="1:55">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="5">D66</f>
+        <f t="shared" ref="A67:A130" si="6">D66</f>
         <v>0.50886399999999998</v>
       </c>
       <c r="B67" t="s">
@@ -9546,7 +9630,7 @@
         <v>0.33</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W130" si="6">Z66</f>
+        <f t="shared" ref="W67:W130" si="7">Z66</f>
         <v>0.94399999999999995</v>
       </c>
       <c r="X67" t="s">
@@ -9573,11 +9657,11 @@
         <v>0.90156800000000004</v>
       </c>
       <c r="AJ67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4838709677419362E-3</v>
       </c>
       <c r="AK67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90451612903225787</v>
       </c>
       <c r="BA67" t="s">
@@ -9592,7 +9676,7 @@
     </row>
     <row r="68" spans="1:55">
       <c r="A68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33</v>
       </c>
       <c r="B68" t="s">
@@ -9605,7 +9689,7 @@
         <v>0.52390400000000004</v>
       </c>
       <c r="W68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.33</v>
       </c>
       <c r="X68" t="s">
@@ -9632,11 +9716,11 @@
         <v>0.90880000000000005</v>
       </c>
       <c r="AJ68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0967741935483875E-3</v>
       </c>
       <c r="AK68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91161290322580624</v>
       </c>
       <c r="BA68" t="s">
@@ -9651,7 +9735,7 @@
     </row>
     <row r="69" spans="1:55">
       <c r="A69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52390400000000004</v>
       </c>
       <c r="B69" t="s">
@@ -9664,7 +9748,7 @@
         <v>0.34</v>
       </c>
       <c r="W69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93600000000000005</v>
       </c>
       <c r="X69" t="s">
@@ -9691,11 +9775,11 @@
         <v>0.91564800000000002</v>
       </c>
       <c r="AJ69">
-        <f t="shared" ref="AJ69:AJ103" si="7">AH69/SUM($AH$4:$AH$103)</f>
+        <f t="shared" ref="AJ69:AJ103" si="8">AH69/SUM($AH$4:$AH$103)</f>
         <v>6.709677419354838E-3</v>
       </c>
       <c r="AK69">
-        <f t="shared" ref="AK69:AK103" si="8">AJ69+AK68</f>
+        <f t="shared" ref="AK69:AK103" si="9">AJ69+AK68</f>
         <v>0.91832258064516104</v>
       </c>
       <c r="BA69" t="s">
@@ -9710,7 +9794,7 @@
     </row>
     <row r="70" spans="1:55">
       <c r="A70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
       <c r="B70" t="s">
@@ -9723,7 +9807,7 @@
         <v>0.53881599999999996</v>
       </c>
       <c r="W70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34</v>
       </c>
       <c r="X70" t="s">
@@ -9750,11 +9834,11 @@
         <v>0.92211200000000004</v>
       </c>
       <c r="AJ70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.3225806451612902E-3</v>
       </c>
       <c r="AK70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.92464516129032237</v>
       </c>
       <c r="BA70" t="s">
@@ -9769,7 +9853,7 @@
     </row>
     <row r="71" spans="1:55">
       <c r="A71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53881599999999996</v>
       </c>
       <c r="B71" t="s">
@@ -9782,7 +9866,7 @@
         <v>0.35</v>
       </c>
       <c r="W71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="X71" t="s">
@@ -9809,11 +9893,11 @@
         <v>0.92819200000000002</v>
       </c>
       <c r="AJ71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.9354838709677416E-3</v>
       </c>
       <c r="AK71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.93058064516129013</v>
       </c>
       <c r="BA71" t="s">
@@ -9828,7 +9912,7 @@
     </row>
     <row r="72" spans="1:55">
       <c r="A72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="B72" t="s">
@@ -9841,7 +9925,7 @@
         <v>0.55359999999999998</v>
       </c>
       <c r="W72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="X72" t="s">
@@ -9868,11 +9952,11 @@
         <v>0.93388800000000005</v>
       </c>
       <c r="AJ72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5483870967741929E-3</v>
       </c>
       <c r="AK72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.93612903225806432</v>
       </c>
       <c r="BA72" t="s">
@@ -9887,7 +9971,7 @@
     </row>
     <row r="73" spans="1:55">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55359999999999998</v>
       </c>
       <c r="B73" t="s">
@@ -9900,7 +9984,7 @@
         <v>0.36</v>
       </c>
       <c r="W73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92</v>
       </c>
       <c r="X73" t="s">
@@ -9927,11 +10011,11 @@
         <v>0.93920000000000003</v>
       </c>
       <c r="AJ73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.1612903225806452E-3</v>
       </c>
       <c r="AK73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.94129032258064493</v>
       </c>
       <c r="BA73" t="s">
@@ -9946,7 +10030,7 @@
     </row>
     <row r="74" spans="1:55">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36</v>
       </c>
       <c r="B74" t="s">
@@ -9959,7 +10043,7 @@
         <v>0.56825599999999998</v>
       </c>
       <c r="W74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.36</v>
       </c>
       <c r="X74" t="s">
@@ -9986,11 +10070,11 @@
         <v>0.94412799999999997</v>
       </c>
       <c r="AJ74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7741935483870965E-3</v>
       </c>
       <c r="AK74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.94606451612903208</v>
       </c>
       <c r="BA74" t="s">
@@ -10005,7 +10089,7 @@
     </row>
     <row r="75" spans="1:55">
       <c r="A75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56825599999999998</v>
       </c>
       <c r="B75" t="s">
@@ -10018,7 +10102,7 @@
         <v>0.37</v>
       </c>
       <c r="W75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91200000000000003</v>
       </c>
       <c r="X75" t="s">
@@ -10045,11 +10129,11 @@
         <v>0.94867199999999996</v>
       </c>
       <c r="AJ75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3870967741935487E-3</v>
       </c>
       <c r="AK75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.95045161290322566</v>
       </c>
       <c r="BA75" t="s">
@@ -10064,7 +10148,7 @@
     </row>
     <row r="76" spans="1:55">
       <c r="A76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37</v>
       </c>
       <c r="B76" t="s">
@@ -10077,7 +10161,7 @@
         <v>0.58278399999999997</v>
       </c>
       <c r="W76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.37</v>
       </c>
       <c r="X76" t="s">
@@ -10104,11 +10188,11 @@
         <v>0.95283200000000001</v>
       </c>
       <c r="AJ76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AK76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.95445161290322567</v>
       </c>
       <c r="BA76" t="s">
@@ -10123,7 +10207,7 @@
     </row>
     <row r="77" spans="1:55">
       <c r="A77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58278399999999997</v>
       </c>
       <c r="B77" t="s">
@@ -10136,7 +10220,7 @@
         <v>0.38</v>
       </c>
       <c r="W77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90400000000000003</v>
       </c>
       <c r="X77" t="s">
@@ -10163,11 +10247,11 @@
         <v>0.95660800000000001</v>
       </c>
       <c r="AJ77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6129032258064519E-3</v>
       </c>
       <c r="AK77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.9580645161290321</v>
       </c>
       <c r="BA77" t="s">
@@ -10182,7 +10266,7 @@
     </row>
     <row r="78" spans="1:55">
       <c r="A78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38</v>
       </c>
       <c r="B78" t="s">
@@ -10195,7 +10279,7 @@
         <v>0.59718400000000005</v>
       </c>
       <c r="W78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.38</v>
       </c>
       <c r="X78" t="s">
@@ -10222,11 +10306,11 @@
         <v>0.96</v>
       </c>
       <c r="AJ78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2258064516129032E-3</v>
       </c>
       <c r="AK78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96129032258064495</v>
       </c>
       <c r="BA78" t="s">
@@ -10241,7 +10325,7 @@
     </row>
     <row r="79" spans="1:55">
       <c r="A79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59718400000000005</v>
       </c>
       <c r="B79" t="s">
@@ -10254,7 +10338,7 @@
         <v>0.39</v>
       </c>
       <c r="W79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.89600000000000002</v>
       </c>
       <c r="X79" t="s">
@@ -10281,11 +10365,11 @@
         <v>0.96313599999999999</v>
       </c>
       <c r="AJ79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.096774193548387E-3</v>
       </c>
       <c r="AK79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96438709677419332</v>
       </c>
       <c r="BA79" t="s">
@@ -10300,7 +10384,7 @@
     </row>
     <row r="80" spans="1:55">
       <c r="A80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.39</v>
       </c>
       <c r="B80" t="s">
@@ -10313,7 +10397,7 @@
         <v>0.611456</v>
       </c>
       <c r="W80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39</v>
       </c>
       <c r="X80" t="s">
@@ -10340,11 +10424,11 @@
         <v>0.966144</v>
       </c>
       <c r="AJ80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9677419354838708E-3</v>
       </c>
       <c r="AK80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.9673548387096772</v>
       </c>
       <c r="BA80" t="s">
@@ -10359,7 +10443,7 @@
     </row>
     <row r="81" spans="1:55">
       <c r="A81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.611456</v>
       </c>
       <c r="B81" t="s">
@@ -10372,7 +10456,7 @@
         <v>0.4</v>
       </c>
       <c r="W81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.88800000000000001</v>
       </c>
       <c r="X81" t="s">
@@ -10399,11 +10483,11 @@
         <v>0.969024</v>
       </c>
       <c r="AJ81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8387096774193546E-3</v>
       </c>
       <c r="AK81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97019354838709659</v>
       </c>
       <c r="BA81" t="s">
@@ -10418,7 +10502,7 @@
     </row>
     <row r="82" spans="1:55">
       <c r="A82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="B82" t="s">
@@ -10431,7 +10515,7 @@
         <v>0.62560000000000004</v>
       </c>
       <c r="W82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="X82" t="s">
@@ -10458,11 +10542,11 @@
         <v>0.97177599999999997</v>
       </c>
       <c r="AJ82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7096774193548388E-3</v>
       </c>
       <c r="AK82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97290322580645139</v>
       </c>
       <c r="BA82" t="s">
@@ -10477,7 +10561,7 @@
     </row>
     <row r="83" spans="1:55">
       <c r="A83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.62560000000000004</v>
       </c>
       <c r="B83" t="s">
@@ -10490,7 +10574,7 @@
         <v>0.41</v>
       </c>
       <c r="W83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.88</v>
       </c>
       <c r="X83" t="s">
@@ -10517,11 +10601,11 @@
         <v>0.97440000000000004</v>
       </c>
       <c r="AJ83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5806451612903226E-3</v>
       </c>
       <c r="AK83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.9754838709677417</v>
       </c>
       <c r="BA83" t="s">
@@ -10536,7 +10620,7 @@
     </row>
     <row r="84" spans="1:55">
       <c r="A84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41</v>
       </c>
       <c r="B84" t="s">
@@ -10549,7 +10633,7 @@
         <v>0.63961599999999996</v>
       </c>
       <c r="W84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.41</v>
       </c>
       <c r="X84" t="s">
@@ -10576,11 +10660,11 @@
         <v>0.97689599999999999</v>
       </c>
       <c r="AJ84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4516129032258064E-3</v>
       </c>
       <c r="AK84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97793548387096751</v>
       </c>
       <c r="BA84" t="s">
@@ -10595,7 +10679,7 @@
     </row>
     <row r="85" spans="1:55">
       <c r="A85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.63961599999999996</v>
       </c>
       <c r="B85" t="s">
@@ -10608,7 +10692,7 @@
         <v>0.42</v>
       </c>
       <c r="W85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.872</v>
       </c>
       <c r="X85" t="s">
@@ -10635,11 +10719,11 @@
         <v>0.97926400000000002</v>
       </c>
       <c r="AJ85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3225806451612901E-3</v>
       </c>
       <c r="AK85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.98025806451612885</v>
       </c>
       <c r="BA85" t="s">
@@ -10654,7 +10738,7 @@
     </row>
     <row r="86" spans="1:55">
       <c r="A86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42</v>
       </c>
       <c r="B86" t="s">
@@ -10667,7 +10751,7 @@
         <v>0.65350399999999997</v>
       </c>
       <c r="W86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.42</v>
       </c>
       <c r="X86" t="s">
@@ -10694,11 +10778,11 @@
         <v>0.98150400000000004</v>
       </c>
       <c r="AJ86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1935483870967744E-3</v>
       </c>
       <c r="AK86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.98245161290322558</v>
       </c>
       <c r="BA86" t="s">
@@ -10713,7 +10797,7 @@
     </row>
     <row r="87" spans="1:55">
       <c r="A87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65350399999999997</v>
       </c>
       <c r="B87" t="s">
@@ -10726,7 +10810,7 @@
         <v>0.43</v>
       </c>
       <c r="W87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86399999999999999</v>
       </c>
       <c r="X87" t="s">
@@ -10753,11 +10837,11 @@
         <v>0.98361600000000005</v>
       </c>
       <c r="AJ87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0645161290322581E-3</v>
       </c>
       <c r="AK87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.98451612903225783</v>
       </c>
       <c r="BA87" t="s">
@@ -10772,7 +10856,7 @@
     </row>
     <row r="88" spans="1:55">
       <c r="A88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43</v>
       </c>
       <c r="B88" t="s">
@@ -10785,7 +10869,7 @@
         <v>0.66726399999999997</v>
       </c>
       <c r="W88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.43</v>
       </c>
       <c r="X88" t="s">
@@ -10812,11 +10896,11 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="AJ88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9354838709677419E-3</v>
       </c>
       <c r="AK88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.98645161290322558</v>
       </c>
       <c r="BA88" t="s">
@@ -10831,7 +10915,7 @@
     </row>
     <row r="89" spans="1:55">
       <c r="A89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66726399999999997</v>
       </c>
       <c r="B89" t="s">
@@ -10844,7 +10928,7 @@
         <v>0.44</v>
       </c>
       <c r="W89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85599999999999998</v>
       </c>
       <c r="X89" t="s">
@@ -10871,11 +10955,11 @@
         <v>0.987456</v>
       </c>
       <c r="AJ89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8064516129032259E-3</v>
       </c>
       <c r="AK89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.98825806451612885</v>
       </c>
       <c r="BA89" t="s">
@@ -10890,7 +10974,7 @@
     </row>
     <row r="90" spans="1:55">
       <c r="A90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
       <c r="B90" t="s">
@@ -10903,7 +10987,7 @@
         <v>0.68089599999999995</v>
       </c>
       <c r="W90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44</v>
       </c>
       <c r="X90" t="s">
@@ -10930,11 +11014,11 @@
         <v>0.98918399999999995</v>
       </c>
       <c r="AJ90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6774193548387095E-3</v>
       </c>
       <c r="AK90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.98993548387096753</v>
       </c>
       <c r="BA90" t="s">
@@ -10949,7 +11033,7 @@
     </row>
     <row r="91" spans="1:55">
       <c r="A91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.68089599999999995</v>
       </c>
       <c r="B91" t="s">
@@ -10962,7 +11046,7 @@
         <v>0.45</v>
       </c>
       <c r="W91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84799999999999998</v>
       </c>
       <c r="X91" t="s">
@@ -10989,11 +11073,11 @@
         <v>0.990784</v>
       </c>
       <c r="AJ91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5483870967741935E-3</v>
       </c>
       <c r="AK91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99148387096774171</v>
       </c>
       <c r="BA91" t="s">
@@ -11008,7 +11092,7 @@
     </row>
     <row r="92" spans="1:55">
       <c r="A92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.45</v>
       </c>
       <c r="B92" t="s">
@@ -11021,7 +11105,7 @@
         <v>0.69440000000000002</v>
       </c>
       <c r="W92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="X92" t="s">
@@ -11048,11 +11132,11 @@
         <v>0.99225600000000003</v>
       </c>
       <c r="AJ92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4193548387096773E-3</v>
       </c>
       <c r="AK92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99290322580645141</v>
       </c>
       <c r="BA92" t="s">
@@ -11067,7 +11151,7 @@
     </row>
     <row r="93" spans="1:55">
       <c r="A93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69440000000000002</v>
       </c>
       <c r="B93" t="s">
@@ -11080,7 +11164,7 @@
         <v>0.46</v>
       </c>
       <c r="W93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84</v>
       </c>
       <c r="X93" t="s">
@@ -11107,11 +11191,11 @@
         <v>0.99360000000000004</v>
       </c>
       <c r="AJ93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2903225806451613E-3</v>
       </c>
       <c r="AK93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99419354838709662</v>
       </c>
       <c r="BA93" t="s">
@@ -11126,7 +11210,7 @@
     </row>
     <row r="94" spans="1:55">
       <c r="A94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.46</v>
       </c>
       <c r="B94" t="s">
@@ -11139,7 +11223,7 @@
         <v>0.70777599999999996</v>
       </c>
       <c r="W94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46</v>
       </c>
       <c r="X94" t="s">
@@ -11166,11 +11250,11 @@
         <v>0.99481600000000003</v>
       </c>
       <c r="AJ94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1612903225806451E-3</v>
       </c>
       <c r="AK94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99535483870967723</v>
       </c>
       <c r="BA94" t="s">
@@ -11185,7 +11269,7 @@
     </row>
     <row r="95" spans="1:55">
       <c r="A95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70777599999999996</v>
       </c>
       <c r="B95" t="s">
@@ -11198,7 +11282,7 @@
         <v>0.47</v>
       </c>
       <c r="W95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83199999999999996</v>
       </c>
       <c r="X95" t="s">
@@ -11225,11 +11309,11 @@
         <v>0.99590400000000001</v>
       </c>
       <c r="AJ95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0322580645161291E-3</v>
       </c>
       <c r="AK95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99638709677419335</v>
       </c>
       <c r="BA95" t="s">
@@ -11244,7 +11328,7 @@
     </row>
     <row r="96" spans="1:55">
       <c r="A96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47</v>
       </c>
       <c r="B96" t="s">
@@ -11257,7 +11341,7 @@
         <v>0.721024</v>
       </c>
       <c r="W96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.47</v>
       </c>
       <c r="X96" t="s">
@@ -11284,11 +11368,11 @@
         <v>0.99686399999999997</v>
       </c>
       <c r="AJ96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.0322580645161123E-4</v>
       </c>
       <c r="AK96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99729032258064498</v>
       </c>
       <c r="BA96" t="s">
@@ -11303,7 +11387,7 @@
     </row>
     <row r="97" spans="1:55">
       <c r="A97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.721024</v>
       </c>
       <c r="B97" t="s">
@@ -11316,7 +11400,7 @@
         <v>0.48</v>
       </c>
       <c r="W97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82399999999999995</v>
       </c>
       <c r="X97" t="s">
@@ -11343,11 +11427,11 @@
         <v>0.99769600000000003</v>
       </c>
       <c r="AJ97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.7419354838709513E-4</v>
       </c>
       <c r="AK97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99806451612903213</v>
       </c>
       <c r="BA97" t="s">
@@ -11362,7 +11446,7 @@
     </row>
     <row r="98" spans="1:55">
       <c r="A98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
       <c r="B98" t="s">
@@ -11375,7 +11459,7 @@
         <v>0.73414400000000002</v>
       </c>
       <c r="W98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48</v>
       </c>
       <c r="X98" t="s">
@@ -11402,11 +11486,11 @@
         <v>0.99839999999999995</v>
       </c>
       <c r="AJ98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4516129032257902E-4</v>
       </c>
       <c r="AK98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99870967741935468</v>
       </c>
       <c r="BA98" t="s">
@@ -11421,7 +11505,7 @@
     </row>
     <row r="99" spans="1:55">
       <c r="A99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73414400000000002</v>
       </c>
       <c r="B99" t="s">
@@ -11434,7 +11518,7 @@
         <v>0.49</v>
       </c>
       <c r="W99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81599999999999995</v>
       </c>
       <c r="X99" t="s">
@@ -11461,11 +11545,11 @@
         <v>0.99897599999999998</v>
       </c>
       <c r="AJ99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.1612903225806454E-4</v>
       </c>
       <c r="AK99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99922580645161274</v>
       </c>
       <c r="BA99" t="s">
@@ -11480,7 +11564,7 @@
     </row>
     <row r="100" spans="1:55">
       <c r="A100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49</v>
       </c>
       <c r="B100" t="s">
@@ -11493,7 +11577,7 @@
         <v>0.74713600000000002</v>
       </c>
       <c r="W100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.49</v>
       </c>
       <c r="X100" t="s">
@@ -11520,11 +11604,11 @@
         <v>0.99942399999999998</v>
       </c>
       <c r="AJ100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8709677419354838E-4</v>
       </c>
       <c r="AK100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99961290322580632</v>
       </c>
       <c r="BA100" t="s">
@@ -11539,7 +11623,7 @@
     </row>
     <row r="101" spans="1:55">
       <c r="A101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.74713600000000002</v>
       </c>
       <c r="B101" t="s">
@@ -11552,7 +11636,7 @@
         <v>0.5</v>
       </c>
       <c r="W101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.80800000000000005</v>
       </c>
       <c r="X101" t="s">
@@ -11579,11 +11663,11 @@
         <v>0.99974399999999997</v>
       </c>
       <c r="AJ101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5806451612903227E-4</v>
       </c>
       <c r="AK101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.9998709677419354</v>
       </c>
       <c r="BA101" t="s">
@@ -11598,7 +11682,7 @@
     </row>
     <row r="102" spans="1:55">
       <c r="A102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="B102" t="s">
@@ -11611,7 +11695,7 @@
         <v>0.76</v>
       </c>
       <c r="W102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="X102" t="s">
@@ -11638,11 +11722,11 @@
         <v>0.99993600000000005</v>
       </c>
       <c r="AJ102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2903225806451613E-4</v>
       </c>
       <c r="AK102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="BA102" t="s">
@@ -11657,7 +11741,7 @@
     </row>
     <row r="103" spans="1:55">
       <c r="A103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="B103" t="s">
@@ -11670,7 +11754,7 @@
         <v>0.51</v>
       </c>
       <c r="W103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="X103" t="s">
@@ -11697,11 +11781,11 @@
         <v>1</v>
       </c>
       <c r="AJ103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="BA103" t="s">
@@ -11716,7 +11800,7 @@
     </row>
     <row r="104" spans="1:55">
       <c r="A104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51</v>
       </c>
       <c r="B104" t="s">
@@ -11729,7 +11813,7 @@
         <v>0.77260799999999996</v>
       </c>
       <c r="W104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.51</v>
       </c>
       <c r="X104" t="s">
@@ -11756,7 +11840,7 @@
     </row>
     <row r="105" spans="1:55">
       <c r="A105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77260799999999996</v>
       </c>
       <c r="B105" t="s">
@@ -11769,7 +11853,7 @@
         <v>0.52</v>
       </c>
       <c r="W105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77600000000000002</v>
       </c>
       <c r="X105" t="s">
@@ -11796,7 +11880,7 @@
     </row>
     <row r="106" spans="1:55">
       <c r="A106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52</v>
       </c>
       <c r="B106" t="s">
@@ -11809,7 +11893,7 @@
         <v>0.78483199999999997</v>
       </c>
       <c r="W106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.52</v>
       </c>
       <c r="X106" t="s">
@@ -11836,7 +11920,7 @@
     </row>
     <row r="107" spans="1:55">
       <c r="A107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.78483199999999997</v>
       </c>
       <c r="B107" t="s">
@@ -11849,7 +11933,7 @@
         <v>0.53</v>
       </c>
       <c r="W107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.752</v>
       </c>
       <c r="X107" t="s">
@@ -11876,7 +11960,7 @@
     </row>
     <row r="108" spans="1:55">
       <c r="A108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53</v>
       </c>
       <c r="B108" t="s">
@@ -11889,7 +11973,7 @@
         <v>0.79667200000000005</v>
       </c>
       <c r="W108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53</v>
       </c>
       <c r="X108" t="s">
@@ -11916,7 +12000,7 @@
     </row>
     <row r="109" spans="1:55">
       <c r="A109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79667200000000005</v>
       </c>
       <c r="B109" t="s">
@@ -11929,7 +12013,7 @@
         <v>0.54</v>
       </c>
       <c r="W109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.72799999999999998</v>
       </c>
       <c r="X109" t="s">
@@ -11956,7 +12040,7 @@
     </row>
     <row r="110" spans="1:55">
       <c r="A110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54</v>
       </c>
       <c r="B110" t="s">
@@ -11969,7 +12053,7 @@
         <v>0.80812799999999996</v>
       </c>
       <c r="W110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54</v>
       </c>
       <c r="X110" t="s">
@@ -11996,7 +12080,7 @@
     </row>
     <row r="111" spans="1:55">
       <c r="A111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.80812799999999996</v>
       </c>
       <c r="B111" t="s">
@@ -12009,7 +12093,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="W111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="X111" t="s">
@@ -12036,7 +12120,7 @@
     </row>
     <row r="112" spans="1:55">
       <c r="A112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="B112" t="s">
@@ -12049,7 +12133,7 @@
         <v>0.81920000000000004</v>
       </c>
       <c r="W112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="X112" t="s">
@@ -12076,7 +12160,7 @@
     </row>
     <row r="113" spans="1:55">
       <c r="A113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81920000000000004</v>
       </c>
       <c r="B113" t="s">
@@ -12089,7 +12173,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="W113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.68</v>
       </c>
       <c r="X113" t="s">
@@ -12116,7 +12200,7 @@
     </row>
     <row r="114" spans="1:55">
       <c r="A114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="B114" t="s">
@@ -12129,7 +12213,7 @@
         <v>0.82988799999999996</v>
       </c>
       <c r="W114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="X114" t="s">
@@ -12156,7 +12240,7 @@
     </row>
     <row r="115" spans="1:55">
       <c r="A115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.82988799999999996</v>
       </c>
       <c r="B115" t="s">
@@ -12169,7 +12253,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="W115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.65600000000000003</v>
       </c>
       <c r="X115" t="s">
@@ -12196,7 +12280,7 @@
     </row>
     <row r="116" spans="1:55">
       <c r="A116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="B116" t="s">
@@ -12209,7 +12293,7 @@
         <v>0.84019200000000005</v>
       </c>
       <c r="W116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="X116" t="s">
@@ -12236,7 +12320,7 @@
     </row>
     <row r="117" spans="1:55">
       <c r="A117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84019200000000005</v>
       </c>
       <c r="B117" t="s">
@@ -12249,7 +12333,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="W117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.63200000000000001</v>
       </c>
       <c r="X117" t="s">
@@ -12276,7 +12360,7 @@
     </row>
     <row r="118" spans="1:55">
       <c r="A118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="B118" t="s">
@@ -12289,7 +12373,7 @@
         <v>0.85011199999999998</v>
       </c>
       <c r="W118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="X118" t="s">
@@ -12316,7 +12400,7 @@
     </row>
     <row r="119" spans="1:55">
       <c r="A119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.85011199999999998</v>
       </c>
       <c r="B119" t="s">
@@ -12329,7 +12413,7 @@
         <v>0.59</v>
       </c>
       <c r="W119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="X119" t="s">
@@ -12356,7 +12440,7 @@
     </row>
     <row r="120" spans="1:55">
       <c r="A120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59</v>
       </c>
       <c r="B120" t="s">
@@ -12369,7 +12453,7 @@
         <v>0.85964799999999997</v>
       </c>
       <c r="W120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.59</v>
       </c>
       <c r="X120" t="s">
@@ -12396,7 +12480,7 @@
     </row>
     <row r="121" spans="1:55">
       <c r="A121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.85964799999999997</v>
       </c>
       <c r="B121" t="s">
@@ -12409,7 +12493,7 @@
         <v>0.6</v>
       </c>
       <c r="W121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.58399999999999996</v>
       </c>
       <c r="X121" t="s">
@@ -12436,7 +12520,7 @@
     </row>
     <row r="122" spans="1:55">
       <c r="A122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="B122" t="s">
@@ -12449,7 +12533,7 @@
         <v>0.86880000000000002</v>
       </c>
       <c r="W122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="X122" t="s">
@@ -12476,7 +12560,7 @@
     </row>
     <row r="123" spans="1:55">
       <c r="A123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86880000000000002</v>
       </c>
       <c r="B123" t="s">
@@ -12489,7 +12573,7 @@
         <v>0.61</v>
       </c>
       <c r="W123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="X123" t="s">
@@ -12516,7 +12600,7 @@
     </row>
     <row r="124" spans="1:55">
       <c r="A124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.61</v>
       </c>
       <c r="B124" t="s">
@@ -12529,7 +12613,7 @@
         <v>0.87756800000000001</v>
       </c>
       <c r="W124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.61</v>
       </c>
       <c r="X124" t="s">
@@ -12556,7 +12640,7 @@
     </row>
     <row r="125" spans="1:55">
       <c r="A125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.87756800000000001</v>
       </c>
       <c r="B125" t="s">
@@ -12569,7 +12653,7 @@
         <v>0.62</v>
       </c>
       <c r="W125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53600000000000003</v>
       </c>
       <c r="X125" t="s">
@@ -12596,7 +12680,7 @@
     </row>
     <row r="126" spans="1:55">
       <c r="A126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.62</v>
       </c>
       <c r="B126" t="s">
@@ -12609,7 +12693,7 @@
         <v>0.88595199999999996</v>
       </c>
       <c r="W126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.62</v>
       </c>
       <c r="X126" t="s">
@@ -12636,7 +12720,7 @@
     </row>
     <row r="127" spans="1:55">
       <c r="A127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.88595199999999996</v>
       </c>
       <c r="B127" t="s">
@@ -12649,7 +12733,7 @@
         <v>0.63</v>
       </c>
       <c r="W127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.51200000000000001</v>
       </c>
       <c r="X127" t="s">
@@ -12676,7 +12760,7 @@
     </row>
     <row r="128" spans="1:55">
       <c r="A128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.63</v>
       </c>
       <c r="B128" t="s">
@@ -12689,7 +12773,7 @@
         <v>0.89395199999999997</v>
       </c>
       <c r="W128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.63</v>
       </c>
       <c r="X128" t="s">
@@ -12716,7 +12800,7 @@
     </row>
     <row r="129" spans="1:55">
       <c r="A129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.89395199999999997</v>
       </c>
       <c r="B129" t="s">
@@ -12729,7 +12813,7 @@
         <v>0.64</v>
       </c>
       <c r="W129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48799999999999999</v>
       </c>
       <c r="X129" t="s">
@@ -12756,7 +12840,7 @@
     </row>
     <row r="130" spans="1:55">
       <c r="A130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.64</v>
       </c>
       <c r="B130" t="s">
@@ -12769,7 +12853,7 @@
         <v>0.90156800000000004</v>
       </c>
       <c r="W130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.64</v>
       </c>
       <c r="X130" t="s">
@@ -12796,7 +12880,7 @@
     </row>
     <row r="131" spans="1:55">
       <c r="A131">
-        <f t="shared" ref="A131:A194" si="9">D130</f>
+        <f t="shared" ref="A131:A194" si="10">D130</f>
         <v>0.90156800000000004</v>
       </c>
       <c r="B131" t="s">
@@ -12809,7 +12893,7 @@
         <v>0.65</v>
       </c>
       <c r="W131">
-        <f t="shared" ref="W131:W194" si="10">Z130</f>
+        <f t="shared" ref="W131:W194" si="11">Z130</f>
         <v>0.46400000000000002</v>
       </c>
       <c r="X131" t="s">
@@ -12836,7 +12920,7 @@
     </row>
     <row r="132" spans="1:55">
       <c r="A132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.65</v>
       </c>
       <c r="B132" t="s">
@@ -12849,7 +12933,7 @@
         <v>0.90880000000000005</v>
       </c>
       <c r="W132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.65</v>
       </c>
       <c r="X132" t="s">
@@ -12876,7 +12960,7 @@
     </row>
     <row r="133" spans="1:55">
       <c r="A133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.90880000000000005</v>
       </c>
       <c r="B133" t="s">
@@ -12889,7 +12973,7 @@
         <v>0.66</v>
       </c>
       <c r="W133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.44</v>
       </c>
       <c r="X133" t="s">
@@ -12916,7 +13000,7 @@
     </row>
     <row r="134" spans="1:55">
       <c r="A134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.66</v>
       </c>
       <c r="B134" t="s">
@@ -12929,7 +13013,7 @@
         <v>0.91564800000000002</v>
       </c>
       <c r="W134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.66</v>
       </c>
       <c r="X134" t="s">
@@ -12956,7 +13040,7 @@
     </row>
     <row r="135" spans="1:55">
       <c r="A135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.91564800000000002</v>
       </c>
       <c r="B135" t="s">
@@ -12969,7 +13053,7 @@
         <v>0.67</v>
       </c>
       <c r="W135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41599999999999998</v>
       </c>
       <c r="X135" t="s">
@@ -12996,7 +13080,7 @@
     </row>
     <row r="136" spans="1:55">
       <c r="A136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.67</v>
       </c>
       <c r="B136" t="s">
@@ -13009,7 +13093,7 @@
         <v>0.92211200000000004</v>
       </c>
       <c r="W136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.67</v>
       </c>
       <c r="X136" t="s">
@@ -13036,7 +13120,7 @@
     </row>
     <row r="137" spans="1:55">
       <c r="A137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.92211200000000004</v>
       </c>
       <c r="B137" t="s">
@@ -13049,7 +13133,7 @@
         <v>0.68</v>
       </c>
       <c r="W137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39200000000000002</v>
       </c>
       <c r="X137" t="s">
@@ -13076,7 +13160,7 @@
     </row>
     <row r="138" spans="1:55">
       <c r="A138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.68</v>
       </c>
       <c r="B138" t="s">
@@ -13089,7 +13173,7 @@
         <v>0.92819200000000002</v>
       </c>
       <c r="W138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.68</v>
       </c>
       <c r="X138" t="s">
@@ -13116,7 +13200,7 @@
     </row>
     <row r="139" spans="1:55">
       <c r="A139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.92819200000000002</v>
       </c>
       <c r="B139" t="s">
@@ -13129,7 +13213,7 @@
         <v>0.69</v>
       </c>
       <c r="W139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.36799999999999999</v>
       </c>
       <c r="X139" t="s">
@@ -13156,7 +13240,7 @@
     </row>
     <row r="140" spans="1:55">
       <c r="A140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.69</v>
       </c>
       <c r="B140" t="s">
@@ -13169,7 +13253,7 @@
         <v>0.93388800000000005</v>
       </c>
       <c r="W140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.69</v>
       </c>
       <c r="X140" t="s">
@@ -13196,7 +13280,7 @@
     </row>
     <row r="141" spans="1:55">
       <c r="A141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.93388800000000005</v>
       </c>
       <c r="B141" t="s">
@@ -13209,7 +13293,7 @@
         <v>0.7</v>
       </c>
       <c r="W141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.34399999999999997</v>
       </c>
       <c r="X141" t="s">
@@ -13236,7 +13320,7 @@
     </row>
     <row r="142" spans="1:55">
       <c r="A142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
       <c r="B142" t="s">
@@ -13249,7 +13333,7 @@
         <v>0.93920000000000003</v>
       </c>
       <c r="W142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="X142" t="s">
@@ -13276,7 +13360,7 @@
     </row>
     <row r="143" spans="1:55">
       <c r="A143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.93920000000000003</v>
       </c>
       <c r="B143" t="s">
@@ -13289,7 +13373,7 @@
         <v>0.71</v>
       </c>
       <c r="W143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.32</v>
       </c>
       <c r="X143" t="s">
@@ -13316,7 +13400,7 @@
     </row>
     <row r="144" spans="1:55">
       <c r="A144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.71</v>
       </c>
       <c r="B144" t="s">
@@ -13329,7 +13413,7 @@
         <v>0.94412799999999997</v>
       </c>
       <c r="W144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.71</v>
       </c>
       <c r="X144" t="s">
@@ -13356,7 +13440,7 @@
     </row>
     <row r="145" spans="1:55">
       <c r="A145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.94412799999999997</v>
       </c>
       <c r="B145" t="s">
@@ -13369,7 +13453,7 @@
         <v>0.72</v>
       </c>
       <c r="W145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.29599999999999999</v>
       </c>
       <c r="X145" t="s">
@@ -13396,7 +13480,7 @@
     </row>
     <row r="146" spans="1:55">
       <c r="A146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.72</v>
       </c>
       <c r="B146" t="s">
@@ -13409,7 +13493,7 @@
         <v>0.94867199999999996</v>
       </c>
       <c r="W146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.72</v>
       </c>
       <c r="X146" t="s">
@@ -13436,7 +13520,7 @@
     </row>
     <row r="147" spans="1:55">
       <c r="A147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.94867199999999996</v>
       </c>
       <c r="B147" t="s">
@@ -13449,7 +13533,7 @@
         <v>0.73</v>
       </c>
       <c r="W147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.27200000000000002</v>
       </c>
       <c r="X147" t="s">
@@ -13476,7 +13560,7 @@
     </row>
     <row r="148" spans="1:55">
       <c r="A148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.73</v>
       </c>
       <c r="B148" t="s">
@@ -13489,7 +13573,7 @@
         <v>0.95283200000000001</v>
       </c>
       <c r="W148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.73</v>
       </c>
       <c r="X148" t="s">
@@ -13516,7 +13600,7 @@
     </row>
     <row r="149" spans="1:55">
       <c r="A149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95283200000000001</v>
       </c>
       <c r="B149" t="s">
@@ -13529,7 +13613,7 @@
         <v>0.74</v>
       </c>
       <c r="W149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.248</v>
       </c>
       <c r="X149" t="s">
@@ -13556,7 +13640,7 @@
     </row>
     <row r="150" spans="1:55">
       <c r="A150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.74</v>
       </c>
       <c r="B150" t="s">
@@ -13569,7 +13653,7 @@
         <v>0.95660800000000001</v>
       </c>
       <c r="W150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.74</v>
       </c>
       <c r="X150" t="s">
@@ -13596,7 +13680,7 @@
     </row>
     <row r="151" spans="1:55">
       <c r="A151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95660800000000001</v>
       </c>
       <c r="B151" t="s">
@@ -13609,7 +13693,7 @@
         <v>0.75</v>
       </c>
       <c r="W151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.224</v>
       </c>
       <c r="X151" t="s">
@@ -13636,7 +13720,7 @@
     </row>
     <row r="152" spans="1:55">
       <c r="A152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="B152" t="s">
@@ -13649,7 +13733,7 @@
         <v>0.96</v>
       </c>
       <c r="W152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
       <c r="X152" t="s">
@@ -13676,7 +13760,7 @@
     </row>
     <row r="153" spans="1:55">
       <c r="A153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.96</v>
       </c>
       <c r="B153" t="s">
@@ -13689,7 +13773,7 @@
         <v>0.76</v>
       </c>
       <c r="W153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="X153" t="s">
@@ -13716,7 +13800,7 @@
     </row>
     <row r="154" spans="1:55">
       <c r="A154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.76</v>
       </c>
       <c r="B154" t="s">
@@ -13729,7 +13813,7 @@
         <v>0.96313599999999999</v>
       </c>
       <c r="W154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.76</v>
       </c>
       <c r="X154" t="s">
@@ -13756,7 +13840,7 @@
     </row>
     <row r="155" spans="1:55">
       <c r="A155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.96313599999999999</v>
       </c>
       <c r="B155" t="s">
@@ -13769,7 +13853,7 @@
         <v>0.77</v>
       </c>
       <c r="W155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.192</v>
       </c>
       <c r="X155" t="s">
@@ -13796,7 +13880,7 @@
     </row>
     <row r="156" spans="1:55">
       <c r="A156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77</v>
       </c>
       <c r="B156" t="s">
@@ -13809,7 +13893,7 @@
         <v>0.966144</v>
       </c>
       <c r="W156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.77</v>
       </c>
       <c r="X156" t="s">
@@ -13836,7 +13920,7 @@
     </row>
     <row r="157" spans="1:55">
       <c r="A157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.966144</v>
       </c>
       <c r="B157" t="s">
@@ -13849,7 +13933,7 @@
         <v>0.78</v>
       </c>
       <c r="W157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.184</v>
       </c>
       <c r="X157" t="s">
@@ -13876,7 +13960,7 @@
     </row>
     <row r="158" spans="1:55">
       <c r="A158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.78</v>
       </c>
       <c r="B158" t="s">
@@ -13889,7 +13973,7 @@
         <v>0.969024</v>
       </c>
       <c r="W158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.78</v>
       </c>
       <c r="X158" t="s">
@@ -13916,7 +14000,7 @@
     </row>
     <row r="159" spans="1:55">
       <c r="A159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.969024</v>
       </c>
       <c r="B159" t="s">
@@ -13929,7 +14013,7 @@
         <v>0.79</v>
       </c>
       <c r="W159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17599999999999999</v>
       </c>
       <c r="X159" t="s">
@@ -13956,7 +14040,7 @@
     </row>
     <row r="160" spans="1:55">
       <c r="A160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.79</v>
       </c>
       <c r="B160" t="s">
@@ -13969,7 +14053,7 @@
         <v>0.97177599999999997</v>
       </c>
       <c r="W160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.79</v>
       </c>
       <c r="X160" t="s">
@@ -13996,7 +14080,7 @@
     </row>
     <row r="161" spans="1:55">
       <c r="A161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97177599999999997</v>
       </c>
       <c r="B161" t="s">
@@ -14009,7 +14093,7 @@
         <v>0.8</v>
       </c>
       <c r="W161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16800000000000001</v>
       </c>
       <c r="X161" t="s">
@@ -14036,7 +14120,7 @@
     </row>
     <row r="162" spans="1:55">
       <c r="A162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="B162" t="s">
@@ -14049,7 +14133,7 @@
         <v>0.97440000000000004</v>
       </c>
       <c r="W162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
       <c r="X162" t="s">
@@ -14076,7 +14160,7 @@
     </row>
     <row r="163" spans="1:55">
       <c r="A163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97440000000000004</v>
       </c>
       <c r="B163" t="s">
@@ -14089,7 +14173,7 @@
         <v>0.81</v>
       </c>
       <c r="W163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16</v>
       </c>
       <c r="X163" t="s">
@@ -14116,7 +14200,7 @@
     </row>
     <row r="164" spans="1:55">
       <c r="A164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.81</v>
       </c>
       <c r="B164" t="s">
@@ -14129,7 +14213,7 @@
         <v>0.97689599999999999</v>
       </c>
       <c r="W164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.81</v>
       </c>
       <c r="X164" t="s">
@@ -14156,7 +14240,7 @@
     </row>
     <row r="165" spans="1:55">
       <c r="A165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97689599999999999</v>
       </c>
       <c r="B165" t="s">
@@ -14169,7 +14253,7 @@
         <v>0.82</v>
       </c>
       <c r="W165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.152</v>
       </c>
       <c r="X165" t="s">
@@ -14196,7 +14280,7 @@
     </row>
     <row r="166" spans="1:55">
       <c r="A166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.82</v>
       </c>
       <c r="B166" t="s">
@@ -14209,7 +14293,7 @@
         <v>0.97926400000000002</v>
       </c>
       <c r="W166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.82</v>
       </c>
       <c r="X166" t="s">
@@ -14236,7 +14320,7 @@
     </row>
     <row r="167" spans="1:55">
       <c r="A167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97926400000000002</v>
       </c>
       <c r="B167" t="s">
@@ -14249,7 +14333,7 @@
         <v>0.83</v>
       </c>
       <c r="W167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14399999999999999</v>
       </c>
       <c r="X167" t="s">
@@ -14276,7 +14360,7 @@
     </row>
     <row r="168" spans="1:55">
       <c r="A168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.83</v>
       </c>
       <c r="B168" t="s">
@@ -14289,7 +14373,7 @@
         <v>0.98150400000000004</v>
       </c>
       <c r="W168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.83</v>
       </c>
       <c r="X168" t="s">
@@ -14316,7 +14400,7 @@
     </row>
     <row r="169" spans="1:55">
       <c r="A169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.98150400000000004</v>
       </c>
       <c r="B169" t="s">
@@ -14329,7 +14413,7 @@
         <v>0.84</v>
       </c>
       <c r="W169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="X169" t="s">
@@ -14356,7 +14440,7 @@
     </row>
     <row r="170" spans="1:55">
       <c r="A170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84</v>
       </c>
       <c r="B170" t="s">
@@ -14369,7 +14453,7 @@
         <v>0.98361600000000005</v>
       </c>
       <c r="W170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.84</v>
       </c>
       <c r="X170" t="s">
@@ -14396,7 +14480,7 @@
     </row>
     <row r="171" spans="1:55">
       <c r="A171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.98361600000000005</v>
       </c>
       <c r="B171" t="s">
@@ -14409,7 +14493,7 @@
         <v>0.85</v>
       </c>
       <c r="W171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.128</v>
       </c>
       <c r="X171" t="s">
@@ -14436,7 +14520,7 @@
     </row>
     <row r="172" spans="1:55">
       <c r="A172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.85</v>
       </c>
       <c r="B172" t="s">
@@ -14449,7 +14533,7 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="W172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.85</v>
       </c>
       <c r="X172" t="s">
@@ -14476,7 +14560,7 @@
     </row>
     <row r="173" spans="1:55">
       <c r="A173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.98560000000000003</v>
       </c>
       <c r="B173" t="s">
@@ -14489,7 +14573,7 @@
         <v>0.86</v>
       </c>
       <c r="W173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="X173" t="s">
@@ -14516,7 +14600,7 @@
     </row>
     <row r="174" spans="1:55">
       <c r="A174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.86</v>
       </c>
       <c r="B174" t="s">
@@ -14529,7 +14613,7 @@
         <v>0.987456</v>
       </c>
       <c r="W174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.86</v>
       </c>
       <c r="X174" t="s">
@@ -14556,7 +14640,7 @@
     </row>
     <row r="175" spans="1:55">
       <c r="A175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.987456</v>
       </c>
       <c r="B175" t="s">
@@ -14569,7 +14653,7 @@
         <v>0.87</v>
       </c>
       <c r="W175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.112</v>
       </c>
       <c r="X175" t="s">
@@ -14596,7 +14680,7 @@
     </row>
     <row r="176" spans="1:55">
       <c r="A176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.87</v>
       </c>
       <c r="B176" t="s">
@@ -14609,7 +14693,7 @@
         <v>0.98918399999999995</v>
       </c>
       <c r="W176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.87</v>
       </c>
       <c r="X176" t="s">
@@ -14636,7 +14720,7 @@
     </row>
     <row r="177" spans="1:55">
       <c r="A177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.98918399999999995</v>
       </c>
       <c r="B177" t="s">
@@ -14649,7 +14733,7 @@
         <v>0.88</v>
       </c>
       <c r="W177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.104</v>
       </c>
       <c r="X177" t="s">
@@ -14676,7 +14760,7 @@
     </row>
     <row r="178" spans="1:55">
       <c r="A178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.88</v>
       </c>
       <c r="B178" t="s">
@@ -14689,7 +14773,7 @@
         <v>0.990784</v>
       </c>
       <c r="W178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.88</v>
       </c>
       <c r="X178" t="s">
@@ -14716,7 +14800,7 @@
     </row>
     <row r="179" spans="1:55">
       <c r="A179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.990784</v>
       </c>
       <c r="B179" t="s">
@@ -14729,7 +14813,7 @@
         <v>0.89</v>
       </c>
       <c r="W179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="X179" t="s">
@@ -14756,7 +14840,7 @@
     </row>
     <row r="180" spans="1:55">
       <c r="A180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89</v>
       </c>
       <c r="B180" t="s">
@@ -14769,7 +14853,7 @@
         <v>0.99225600000000003</v>
       </c>
       <c r="W180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.89</v>
       </c>
       <c r="X180" t="s">
@@ -14796,7 +14880,7 @@
     </row>
     <row r="181" spans="1:55">
       <c r="A181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99225600000000003</v>
       </c>
       <c r="B181" t="s">
@@ -14809,7 +14893,7 @@
         <v>0.9</v>
       </c>
       <c r="W181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="X181" t="s">
@@ -14836,7 +14920,7 @@
     </row>
     <row r="182" spans="1:55">
       <c r="A182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
       <c r="B182" t="s">
@@ -14849,7 +14933,7 @@
         <v>0.99360000000000004</v>
       </c>
       <c r="W182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
       <c r="X182" t="s">
@@ -14876,7 +14960,7 @@
     </row>
     <row r="183" spans="1:55">
       <c r="A183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99360000000000004</v>
       </c>
       <c r="B183" t="s">
@@ -14889,7 +14973,7 @@
         <v>0.91</v>
       </c>
       <c r="W183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
       <c r="X183" t="s">
@@ -14916,7 +15000,7 @@
     </row>
     <row r="184" spans="1:55">
       <c r="A184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.91</v>
       </c>
       <c r="B184" t="s">
@@ -14929,7 +15013,7 @@
         <v>0.99481600000000003</v>
       </c>
       <c r="W184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91</v>
       </c>
       <c r="X184" t="s">
@@ -14956,7 +15040,7 @@
     </row>
     <row r="185" spans="1:55">
       <c r="A185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99481600000000003</v>
       </c>
       <c r="B185" t="s">
@@ -14969,7 +15053,7 @@
         <v>0.92</v>
       </c>
       <c r="W185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="X185" t="s">
@@ -14996,7 +15080,7 @@
     </row>
     <row r="186" spans="1:55">
       <c r="A186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.92</v>
       </c>
       <c r="B186" t="s">
@@ -15009,7 +15093,7 @@
         <v>0.99590400000000001</v>
       </c>
       <c r="W186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.92</v>
       </c>
       <c r="X186" t="s">
@@ -15036,7 +15120,7 @@
     </row>
     <row r="187" spans="1:55">
       <c r="A187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99590400000000001</v>
       </c>
       <c r="B187" t="s">
@@ -15049,7 +15133,7 @@
         <v>0.93</v>
       </c>
       <c r="W187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="X187" t="s">
@@ -15076,7 +15160,7 @@
     </row>
     <row r="188" spans="1:55">
       <c r="A188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.93</v>
       </c>
       <c r="B188" t="s">
@@ -15089,7 +15173,7 @@
         <v>0.99686399999999997</v>
       </c>
       <c r="W188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93</v>
       </c>
       <c r="X188" t="s">
@@ -15116,7 +15200,7 @@
     </row>
     <row r="189" spans="1:55">
       <c r="A189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99686399999999997</v>
       </c>
       <c r="B189" t="s">
@@ -15129,7 +15213,7 @@
         <v>0.94</v>
       </c>
       <c r="W189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.5999999999999897E-2</v>
       </c>
       <c r="X189" t="s">
@@ -15156,7 +15240,7 @@
     </row>
     <row r="190" spans="1:55">
       <c r="A190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.94</v>
       </c>
       <c r="B190" t="s">
@@ -15169,7 +15253,7 @@
         <v>0.99769600000000003</v>
       </c>
       <c r="W190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94</v>
       </c>
       <c r="X190" t="s">
@@ -15196,7 +15280,7 @@
     </row>
     <row r="191" spans="1:55">
       <c r="A191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99769600000000003</v>
       </c>
       <c r="B191" t="s">
@@ -15209,7 +15293,7 @@
         <v>0.95</v>
       </c>
       <c r="W191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7999999999999897E-2</v>
       </c>
       <c r="X191" t="s">
@@ -15236,7 +15320,7 @@
     </row>
     <row r="192" spans="1:55">
       <c r="A192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
       <c r="B192" t="s">
@@ -15249,7 +15333,7 @@
         <v>0.99839999999999995</v>
       </c>
       <c r="W192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95</v>
       </c>
       <c r="X192" t="s">
@@ -15276,7 +15360,7 @@
     </row>
     <row r="193" spans="1:55">
       <c r="A193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99839999999999995</v>
       </c>
       <c r="B193" t="s">
@@ -15289,7 +15373,7 @@
         <v>0.96</v>
       </c>
       <c r="W193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.9999999999999897E-2</v>
       </c>
       <c r="X193" t="s">
@@ -15316,7 +15400,7 @@
     </row>
     <row r="194" spans="1:55">
       <c r="A194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.96</v>
       </c>
       <c r="B194" t="s">
@@ -15329,7 +15413,7 @@
         <v>0.99897599999999998</v>
       </c>
       <c r="W194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
       <c r="X194" t="s">
@@ -15356,7 +15440,7 @@
     </row>
     <row r="195" spans="1:55">
       <c r="A195">
-        <f t="shared" ref="A195:A202" si="11">D194</f>
+        <f t="shared" ref="A195:A202" si="12">D194</f>
         <v>0.99897599999999998</v>
       </c>
       <c r="B195" t="s">
@@ -15369,7 +15453,7 @@
         <v>0.97</v>
       </c>
       <c r="W195">
-        <f t="shared" ref="W195:W202" si="12">Z194</f>
+        <f t="shared" ref="W195:W202" si="13">Z194</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="X195" t="s">
@@ -15396,7 +15480,7 @@
     </row>
     <row r="196" spans="1:55">
       <c r="A196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.97</v>
       </c>
       <c r="B196" t="s">
@@ -15409,7 +15493,7 @@
         <v>0.99942399999999998</v>
       </c>
       <c r="W196">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.97</v>
       </c>
       <c r="X196" t="s">
@@ -15436,7 +15520,7 @@
     </row>
     <row r="197" spans="1:55">
       <c r="A197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99942399999999998</v>
       </c>
       <c r="B197" t="s">
@@ -15449,7 +15533,7 @@
         <v>0.98</v>
       </c>
       <c r="W197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.4E-2</v>
       </c>
       <c r="X197" t="s">
@@ -15476,7 +15560,7 @@
     </row>
     <row r="198" spans="1:55">
       <c r="A198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.98</v>
       </c>
       <c r="B198" t="s">
@@ -15489,7 +15573,7 @@
         <v>0.99974399999999997</v>
       </c>
       <c r="W198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98</v>
       </c>
       <c r="X198" t="s">
@@ -15516,7 +15600,7 @@
     </row>
     <row r="199" spans="1:55">
       <c r="A199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99974399999999997</v>
       </c>
       <c r="B199" t="s">
@@ -15529,7 +15613,7 @@
         <v>0.99</v>
       </c>
       <c r="W199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6E-2</v>
       </c>
       <c r="X199" t="s">
@@ -15556,7 +15640,7 @@
     </row>
     <row r="200" spans="1:55">
       <c r="A200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99</v>
       </c>
       <c r="B200" t="s">
@@ -15569,7 +15653,7 @@
         <v>0.99993600000000005</v>
       </c>
       <c r="W200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99</v>
       </c>
       <c r="X200" t="s">
@@ -15596,7 +15680,7 @@
     </row>
     <row r="201" spans="1:55">
       <c r="A201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99993600000000005</v>
       </c>
       <c r="B201" t="s">
@@ -15609,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="W201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="X201" t="s">
@@ -15636,7 +15720,7 @@
     </row>
     <row r="202" spans="1:55">
       <c r="A202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="B202" t="s">
@@ -15649,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="W202">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X202" t="s">
